--- a/Пароли.xlsx
+++ b/Пароли.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\YandexDisk\MyCode\Django\project_Thoth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047874EC-B293-4924-9537-FCA87EDBAC50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7759B58A-5C2E-4248-BE9A-8785A414D8FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -356,9 +356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Пароли.xlsx
+++ b/Пароли.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\YandexDisk\MyCode\Django\project_Thoth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7759B58A-5C2E-4248-BE9A-8785A414D8FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155BC2CF-C1B3-46FF-838F-B250D98AE27A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>spesivtsev_aa</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>w63-RF7-LKk-8WH</t>
+  </si>
+  <si>
+    <t>M4U-E5c-239-ePy</t>
+  </si>
+  <si>
+    <t>sermyagin_ra</t>
   </si>
 </sst>
 </file>
@@ -354,9 +360,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -380,6 +388,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Пароли.xlsx
+++ b/Пароли.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\YandexDisk\MyCode\Django\project_Thoth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155BC2CF-C1B3-46FF-838F-B250D98AE27A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5C505A-FAB4-42B7-8599-580CAFA7FACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>spesivtsev_aa</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>sermyagin_ra</t>
+  </si>
+  <si>
+    <t>oshchepkov_ia</t>
+  </si>
+  <si>
+    <t>xD4zsDGcyeujvDb</t>
   </si>
 </sst>
 </file>
@@ -360,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,6 +402,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Пароли.xlsx
+++ b/Пароли.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\YandexDisk\MyCode\Django\project_Thoth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5C505A-FAB4-42B7-8599-580CAFA7FACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8892B6D0-A070-400C-B4EA-EF9A6AF9A4D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>spesivtsev_aa</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>xD4zsDGcyeujvDb</t>
+  </si>
+  <si>
+    <t>fJT-v68-HhD-sg3</t>
+  </si>
+  <si>
+    <t>mini_olya</t>
   </si>
 </sst>
 </file>
@@ -366,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,6 +416,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Пароли.xlsx
+++ b/Пароли.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\YandexDisk\MyCode\Django\project_Thoth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8892B6D0-A070-400C-B4EA-EF9A6AF9A4D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82801C6A-1D02-4CE2-8C6C-60DBBA577F74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4995" yWindow="2190" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>spesivtsev_aa</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>mini_olya</t>
+  </si>
+  <si>
+    <t>wHv-e8c-9H7-26B</t>
+  </si>
+  <si>
+    <t>bashkatov_vs</t>
   </si>
 </sst>
 </file>
@@ -372,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,6 +430,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Пароли.xlsx
+++ b/Пароли.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\YandexDisk\MyCode\Django\project_Thoth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82801C6A-1D02-4CE2-8C6C-60DBBA577F74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3433D40-66C8-4088-9545-30818E02D203}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4995" yWindow="2190" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>xD4zsDGcyeujvDb</t>
   </si>
   <si>
-    <t>fJT-v68-HhD-sg3</t>
-  </si>
-  <si>
     <t>mini_olya</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>bashkatov_vs</t>
+  </si>
+  <si>
+    <t>12345678q</t>
   </si>
 </sst>
 </file>
@@ -424,18 +424,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Пароли.xlsx
+++ b/Пароли.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\YandexDisk\MyCode\Django\project_Thoth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3433D40-66C8-4088-9545-30818E02D203}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9373D0FC-EF34-4847-B357-6C83BA3FE190}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>spesivtsev_aa</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>12345678q</t>
+  </si>
+  <si>
+    <t>FBi-v3b-JF5-Tz7</t>
+  </si>
+  <si>
+    <t>polukhin_ai</t>
+  </si>
+  <si>
+    <t>R2M-TFh-rNA-69r</t>
+  </si>
+  <si>
+    <t>razinkova_ep</t>
   </si>
 </sst>
 </file>
@@ -378,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,6 +450,22 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Пароли.xlsx
+++ b/Пароли.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\YandexDisk\MyCode\Django\project_Thoth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9373D0FC-EF34-4847-B357-6C83BA3FE190}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5A8453-9BC3-4C19-BCC6-F989B0C2A3CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,7 +393,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Пароли.xlsx
+++ b/Пароли.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\YandexDisk\MyCode\Django\project_Thoth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5A8453-9BC3-4C19-BCC6-F989B0C2A3CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8671BAD6-86A7-4B92-AD1C-8563367D6317}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>spesivtsev_aa</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>razinkova_ep</t>
+  </si>
+  <si>
+    <t>MRw-MwP-Jb3-ZEF</t>
+  </si>
+  <si>
+    <t>gridchina_ms</t>
   </si>
 </sst>
 </file>
@@ -390,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,6 +472,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Пароли.xlsx
+++ b/Пароли.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\YandexDisk\MyCode\Django\project_Thoth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8671BAD6-86A7-4B92-AD1C-8563367D6317}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A30CD9-647B-4BF7-ADDA-4B5D1FBF05B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5085" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>spesivtsev_aa</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>gridchina_ms</t>
+  </si>
+  <si>
+    <t>qAP-vUH-c46-ufB</t>
+  </si>
+  <si>
+    <t>lapshin_ay</t>
   </si>
 </sst>
 </file>
@@ -396,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,6 +486,14 @@
         <v>16</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Пароли.xlsx
+++ b/Пароли.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\YandexDisk\MyCode\Django\project_Thoth\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivansk\YandexDisk\MyCode\Django\project_Thoth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A30CD9-647B-4BF7-ADDA-4B5D1FBF05B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B118F3F-A42E-4515-88F3-A4218E458024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5085" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>basmanov_av</t>
   </si>
   <si>
-    <t>w63-RF7-LKk-8WH</t>
-  </si>
-  <si>
     <t>M4U-E5c-239-ePy</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>bashkatov_vs</t>
   </si>
   <si>
-    <t>12345678q</t>
-  </si>
-  <si>
     <t>FBi-v3b-JF5-Tz7</t>
   </si>
   <si>
@@ -85,6 +79,12 @@
   </si>
   <si>
     <t>lapshin_ay</t>
+  </si>
+  <si>
+    <t>12345678й</t>
+  </si>
+  <si>
+    <t>DuGmP~Van4GZkgNy</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,71 +427,71 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
